--- a/natmiOut/OldD7/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.2289514582562</v>
+        <v>1.437774666666667</v>
       </c>
       <c r="H2">
-        <v>1.2289514582562</v>
+        <v>4.313324</v>
       </c>
       <c r="I2">
-        <v>0.2850038576781619</v>
+        <v>0.2965885866872326</v>
       </c>
       <c r="J2">
-        <v>0.2850038576781619</v>
+        <v>0.2965885866872326</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.1832502462551</v>
+        <v>12.415956</v>
       </c>
       <c r="N2">
-        <v>12.1832502462551</v>
+        <v>37.247868</v>
       </c>
       <c r="O2">
-        <v>0.8770159060641225</v>
+        <v>0.8598042313376485</v>
       </c>
       <c r="P2">
-        <v>0.8770159060641225</v>
+        <v>0.8598042313376485</v>
       </c>
       <c r="Q2">
-        <v>14.97262315643541</v>
+        <v>17.851346999248</v>
       </c>
       <c r="R2">
-        <v>14.97262315643541</v>
+        <v>160.662122993232</v>
       </c>
       <c r="S2">
-        <v>0.2499529164733834</v>
+        <v>0.2550081218001355</v>
       </c>
       <c r="T2">
-        <v>0.2499529164733834</v>
+        <v>0.2550081218001356</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,57 +593,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.2289514582562</v>
+        <v>1.437774666666667</v>
       </c>
       <c r="H3">
-        <v>1.2289514582562</v>
+        <v>4.313324</v>
       </c>
       <c r="I3">
-        <v>0.2850038576781619</v>
+        <v>0.2965885866872326</v>
       </c>
       <c r="J3">
-        <v>0.2850038576781619</v>
+        <v>0.2965885866872326</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.70845931341659</v>
+        <v>1.745879666666666</v>
       </c>
       <c r="N3">
-        <v>1.70845931341659</v>
+        <v>5.237639</v>
       </c>
       <c r="O3">
-        <v>0.1229840939358775</v>
+        <v>0.1209020654395331</v>
       </c>
       <c r="P3">
-        <v>0.1229840939358775</v>
+        <v>0.1209020654395331</v>
       </c>
       <c r="Q3">
-        <v>2.099613564594704</v>
+        <v>2.510181555781778</v>
       </c>
       <c r="R3">
-        <v>2.099613564594704</v>
+        <v>22.591634002036</v>
       </c>
       <c r="S3">
-        <v>0.03505094120477852</v>
+        <v>0.03585817271627842</v>
       </c>
       <c r="T3">
-        <v>0.03505094120477852</v>
+        <v>0.03585817271627843</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.56570580497694</v>
+        <v>1.437774666666667</v>
       </c>
       <c r="H4">
-        <v>1.56570580497694</v>
+        <v>4.313324</v>
       </c>
       <c r="I4">
-        <v>0.3630999348344429</v>
+        <v>0.2965885866872326</v>
       </c>
       <c r="J4">
-        <v>0.3630999348344429</v>
+        <v>0.2965885866872326</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>12.1832502462551</v>
+        <v>0.2786096666666666</v>
       </c>
       <c r="N4">
-        <v>12.1832502462551</v>
+        <v>0.8358289999999999</v>
       </c>
       <c r="O4">
-        <v>0.8770159060641225</v>
+        <v>0.01929370322281843</v>
       </c>
       <c r="P4">
-        <v>0.8770159060641225</v>
+        <v>0.01929370322281843</v>
       </c>
       <c r="Q4">
-        <v>19.07538563404834</v>
+        <v>0.4005779206217777</v>
       </c>
       <c r="R4">
-        <v>19.07538563404834</v>
+        <v>3.605201285595999</v>
       </c>
       <c r="S4">
-        <v>0.3184444183406527</v>
+        <v>0.005722292170818622</v>
       </c>
       <c r="T4">
-        <v>0.3184444183406527</v>
+        <v>0.005722292170818623</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.56570580497694</v>
+        <v>1.589574</v>
       </c>
       <c r="H5">
-        <v>1.56570580497694</v>
+        <v>4.768721999999999</v>
       </c>
       <c r="I5">
-        <v>0.3630999348344429</v>
+        <v>0.3279022207198701</v>
       </c>
       <c r="J5">
-        <v>0.3630999348344429</v>
+        <v>0.3279022207198702</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.70845931341659</v>
+        <v>12.415956</v>
       </c>
       <c r="N5">
-        <v>1.70845931341659</v>
+        <v>37.247868</v>
       </c>
       <c r="O5">
-        <v>0.1229840939358775</v>
+        <v>0.8598042313376485</v>
       </c>
       <c r="P5">
-        <v>0.1229840939358775</v>
+        <v>0.8598042313376485</v>
       </c>
       <c r="Q5">
-        <v>2.674944664583272</v>
+        <v>19.736080842744</v>
       </c>
       <c r="R5">
-        <v>2.674944664583272</v>
+        <v>177.624727584696</v>
       </c>
       <c r="S5">
-        <v>0.04465551649379011</v>
+        <v>0.2819317168399559</v>
       </c>
       <c r="T5">
-        <v>0.04465551649379011</v>
+        <v>0.2819317168399559</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.812585617133051</v>
+        <v>1.589574</v>
       </c>
       <c r="H6">
-        <v>0.812585617133051</v>
+        <v>4.768721999999999</v>
       </c>
       <c r="I6">
-        <v>0.1884452262299442</v>
+        <v>0.3279022207198701</v>
       </c>
       <c r="J6">
-        <v>0.1884452262299442</v>
+        <v>0.3279022207198702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.1832502462551</v>
+        <v>1.745879666666666</v>
       </c>
       <c r="N6">
-        <v>12.1832502462551</v>
+        <v>5.237639</v>
       </c>
       <c r="O6">
-        <v>0.8770159060641225</v>
+        <v>0.1209020654395331</v>
       </c>
       <c r="P6">
-        <v>0.8770159060641225</v>
+        <v>0.1209020654395331</v>
       </c>
       <c r="Q6">
-        <v>9.899933920039595</v>
+        <v>2.775204925261999</v>
       </c>
       <c r="R6">
-        <v>9.899933920039595</v>
+        <v>24.97684432735799</v>
       </c>
       <c r="S6">
-        <v>0.1652694608255131</v>
+        <v>0.03964405574724195</v>
       </c>
       <c r="T6">
-        <v>0.1652694608255131</v>
+        <v>0.03964405574724197</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.812585617133051</v>
+        <v>1.589574</v>
       </c>
       <c r="H7">
-        <v>0.812585617133051</v>
+        <v>4.768721999999999</v>
       </c>
       <c r="I7">
-        <v>0.1884452262299442</v>
+        <v>0.3279022207198701</v>
       </c>
       <c r="J7">
-        <v>0.1884452262299442</v>
+        <v>0.3279022207198702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.70845931341659</v>
+        <v>0.2786096666666666</v>
       </c>
       <c r="N7">
-        <v>1.70845931341659</v>
+        <v>0.8358289999999999</v>
       </c>
       <c r="O7">
-        <v>0.1229840939358775</v>
+        <v>0.01929370322281843</v>
       </c>
       <c r="P7">
-        <v>0.1229840939358775</v>
+        <v>0.01929370322281843</v>
       </c>
       <c r="Q7">
-        <v>1.388269465539328</v>
+        <v>0.4428706822819999</v>
       </c>
       <c r="R7">
-        <v>1.388269465539328</v>
+        <v>3.985836140537999</v>
       </c>
       <c r="S7">
-        <v>0.02317576540443114</v>
+        <v>0.006326448132672277</v>
       </c>
       <c r="T7">
-        <v>0.02317576540443114</v>
+        <v>0.00632644813267228</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.704809132782286</v>
+        <v>1.104440333333333</v>
       </c>
       <c r="H8">
-        <v>0.704809132782286</v>
+        <v>3.313321</v>
       </c>
       <c r="I8">
-        <v>0.1634509812574511</v>
+        <v>0.2278273537140099</v>
       </c>
       <c r="J8">
-        <v>0.1634509812574511</v>
+        <v>0.22782735371401</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.1832502462551</v>
+        <v>12.415956</v>
       </c>
       <c r="N8">
-        <v>12.1832502462551</v>
+        <v>37.247868</v>
       </c>
       <c r="O8">
-        <v>0.8770159060641225</v>
+        <v>0.8598042313376485</v>
       </c>
       <c r="P8">
-        <v>0.8770159060641225</v>
+        <v>0.8598042313376485</v>
       </c>
       <c r="Q8">
-        <v>8.586866040532628</v>
+        <v>13.712682583292</v>
       </c>
       <c r="R8">
-        <v>8.586866040532628</v>
+        <v>123.414143249628</v>
       </c>
       <c r="S8">
-        <v>0.1433491104245734</v>
+        <v>0.1958869227377649</v>
       </c>
       <c r="T8">
-        <v>0.1433491104245734</v>
+        <v>0.1958869227377649</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,300 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.704809132782286</v>
+        <v>1.104440333333333</v>
       </c>
       <c r="H9">
-        <v>0.704809132782286</v>
+        <v>3.313321</v>
       </c>
       <c r="I9">
-        <v>0.1634509812574511</v>
+        <v>0.2278273537140099</v>
       </c>
       <c r="J9">
-        <v>0.1634509812574511</v>
+        <v>0.22782735371401</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.70845931341659</v>
+        <v>1.745879666666666</v>
       </c>
       <c r="N9">
-        <v>1.70845931341659</v>
+        <v>5.237639</v>
       </c>
       <c r="O9">
-        <v>0.1229840939358775</v>
+        <v>0.1209020654395331</v>
       </c>
       <c r="P9">
-        <v>0.1229840939358775</v>
+        <v>0.1209020654395331</v>
       </c>
       <c r="Q9">
-        <v>1.204137727082967</v>
+        <v>1.928219921013222</v>
       </c>
       <c r="R9">
-        <v>1.204137727082967</v>
+        <v>17.353979289119</v>
       </c>
       <c r="S9">
-        <v>0.02010187083287771</v>
+        <v>0.02754479762764688</v>
       </c>
       <c r="T9">
-        <v>0.02010187083287771</v>
+        <v>0.02754479762764689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.104440333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.313321</v>
+      </c>
+      <c r="I10">
+        <v>0.2278273537140099</v>
+      </c>
+      <c r="J10">
+        <v>0.22782735371401</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2786096666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.8358289999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.01929370322281843</v>
+      </c>
+      <c r="P10">
+        <v>0.01929370322281843</v>
+      </c>
+      <c r="Q10">
+        <v>0.3077077531232222</v>
+      </c>
+      <c r="R10">
+        <v>2.769369778109</v>
+      </c>
+      <c r="S10">
+        <v>0.004395633348598187</v>
+      </c>
+      <c r="T10">
+        <v>0.004395633348598189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7159183333333333</v>
+      </c>
+      <c r="H11">
+        <v>2.147755</v>
+      </c>
+      <c r="I11">
+        <v>0.1476818388788872</v>
+      </c>
+      <c r="J11">
+        <v>0.1476818388788872</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.415956</v>
+      </c>
+      <c r="N11">
+        <v>37.247868</v>
+      </c>
+      <c r="O11">
+        <v>0.8598042313376485</v>
+      </c>
+      <c r="P11">
+        <v>0.8598042313376485</v>
+      </c>
+      <c r="Q11">
+        <v>8.88881052626</v>
+      </c>
+      <c r="R11">
+        <v>79.99929473633999</v>
+      </c>
+      <c r="S11">
+        <v>0.1269774699597921</v>
+      </c>
+      <c r="T11">
+        <v>0.1269774699597921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7159183333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.147755</v>
+      </c>
+      <c r="I12">
+        <v>0.1476818388788872</v>
+      </c>
+      <c r="J12">
+        <v>0.1476818388788872</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.745879666666666</v>
+      </c>
+      <c r="N12">
+        <v>5.237639</v>
+      </c>
+      <c r="O12">
+        <v>0.1209020654395331</v>
+      </c>
+      <c r="P12">
+        <v>0.1209020654395331</v>
+      </c>
+      <c r="Q12">
+        <v>1.249907261160556</v>
+      </c>
+      <c r="R12">
+        <v>11.249165350445</v>
+      </c>
+      <c r="S12">
+        <v>0.0178550393483658</v>
+      </c>
+      <c r="T12">
+        <v>0.0178550393483658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7159183333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.147755</v>
+      </c>
+      <c r="I13">
+        <v>0.1476818388788872</v>
+      </c>
+      <c r="J13">
+        <v>0.1476818388788872</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2786096666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.8358289999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.01929370322281843</v>
+      </c>
+      <c r="P13">
+        <v>0.01929370322281843</v>
+      </c>
+      <c r="Q13">
+        <v>0.1994617682105555</v>
+      </c>
+      <c r="R13">
+        <v>1.795155913895</v>
+      </c>
+      <c r="S13">
+        <v>0.002849329570729337</v>
+      </c>
+      <c r="T13">
+        <v>0.002849329570729339</v>
       </c>
     </row>
   </sheetData>
